--- a/src/main/resources/rules/goldRule.xlsx
+++ b/src/main/resources/rules/goldRule.xlsx
@@ -117,7 +117,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="166" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -170,7 +170,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -208,19 +208,6 @@
     </border>
     <border>
       <left/>
-      <right style="hair">
-        <color indexed="8"/>
-      </right>
-      <top style="hair">
-        <color indexed="8"/>
-      </top>
-      <bottom style="hair">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
       <right/>
       <top style="hair">
         <color indexed="8"/>
@@ -234,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -273,13 +260,13 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -293,22 +280,19 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -698,7 +682,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -740,7 +724,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -762,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" outlineLevelRow="1"/>
@@ -781,15 +765,15 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="25" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
     </row>
     <row r="2" spans="1:8" ht="38.1" customHeight="1" outlineLevel="1">
       <c r="A2" s="2" t="s">
@@ -858,12 +842,12 @@
       </c>
     </row>
     <row r="7" spans="1:8" outlineLevel="1">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
       <c r="F7" s="28"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
@@ -1042,7 +1026,7 @@
       <c r="E15" s="10">
         <v>100</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F15" s="24">
         <v>42709</v>
       </c>
       <c r="G15" s="7">

--- a/src/main/resources/rules/goldRule.xlsx
+++ b/src/main/resources/rules/goldRule.xlsx
@@ -682,7 +682,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -724,7 +724,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -747,7 +747,7 @@
   <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" outlineLevelRow="1"/>
@@ -1002,7 +1002,9 @@
       <c r="E14" s="10">
         <v>500</v>
       </c>
-      <c r="F14" s="17"/>
+      <c r="F14" s="24">
+        <v>41858</v>
+      </c>
       <c r="G14" s="7">
         <v>17</v>
       </c>

--- a/src/main/resources/rules/goldRule.xlsx
+++ b/src/main/resources/rules/goldRule.xlsx
@@ -117,7 +117,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-409]d\-mmm\-yyyy;@"/>
   </numFmts>
   <fonts count="3">
     <font>
@@ -280,9 +280,6 @@
     <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -293,6 +290,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -682,7 +682,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -724,7 +724,7 @@
         <a:effectLst/>
         <a:extLst>
           <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-            <a14:hiddenEffects xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:effectLst>
                 <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
                   <a:srgbClr val="808080"/>
@@ -746,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" outlineLevelRow="1"/>
@@ -756,7 +756,7 @@
     <col min="2" max="2" width="35.88671875" customWidth="1"/>
     <col min="3" max="3" width="25" customWidth="1"/>
     <col min="4" max="5" width="19.5546875" customWidth="1"/>
-    <col min="6" max="6" width="19.5546875" style="20" customWidth="1"/>
+    <col min="6" max="6" width="47.5546875" style="20" customWidth="1"/>
     <col min="7" max="7" width="24.6640625" customWidth="1"/>
     <col min="8" max="8" width="20.109375" customWidth="1"/>
   </cols>
@@ -765,15 +765,15 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="25"/>
+      <c r="H1" s="25"/>
     </row>
     <row r="2" spans="1:8" ht="38.1" customHeight="1" outlineLevel="1">
       <c r="A2" s="2" t="s">
@@ -842,13 +842,13 @@
       </c>
     </row>
     <row r="7" spans="1:8" outlineLevel="1">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
       <c r="G7" s="5"/>
       <c r="H7" s="5"/>
     </row>
@@ -1002,8 +1002,8 @@
       <c r="E14" s="10">
         <v>500</v>
       </c>
-      <c r="F14" s="24">
-        <v>41858</v>
+      <c r="F14" s="28">
+        <v>41872</v>
       </c>
       <c r="G14" s="7">
         <v>17</v>
@@ -1028,8 +1028,8 @@
       <c r="E15" s="10">
         <v>100</v>
       </c>
-      <c r="F15" s="24">
-        <v>42709</v>
+      <c r="F15" s="28">
+        <v>42718</v>
       </c>
       <c r="G15" s="7">
         <v>27</v>
